--- a/static/stock.xlsx
+++ b/static/stock.xlsx
@@ -21,18 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
-  <si>
-    <t>GDF-OI14-Queltehue-C35</t>
-  </si>
-  <si>
-    <t>GDF-OI14-Queltehue-C19</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Talla</t>
-  </si>
-  <si>
-    <t>sku</t>
   </si>
   <si>
     <t>Entrada</t>
@@ -44,13 +35,10 @@
     <t>Precio</t>
   </si>
   <si>
-    <t>GDF-PV14-Lile-C10</t>
-  </si>
-  <si>
     <t>Bodega</t>
   </si>
   <si>
-    <t>Bodega Central</t>
+    <t>Sku</t>
   </si>
 </sst>
 </file>
@@ -74,32 +62,25 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -124,27 +105,21 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -444,174 +419,100 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="6"/>
+    <col min="2" max="2" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="42.95" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="42.95" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6">
-        <v>35</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>33558</v>
-      </c>
-      <c r="F2">
-        <v>69900</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
-        <v>40</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>33558</v>
-      </c>
-      <c r="F3">
-        <v>69900</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6">
-        <v>36</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>33558</v>
-      </c>
-      <c r="F4">
-        <v>69900</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="6">
-        <v>38</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>33558</v>
-      </c>
-      <c r="F5">
-        <v>69900</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6">
-        <v>36</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>33558</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>69900</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6">
-        <v>40</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>34510</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6">
-        <v>36</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>69900</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
